--- a/results_v1.xlsx
+++ b/results_v1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Georgia Tech 2018-2019\Spring 2019\ECE 6790\project\try2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D451B2F2-95D4-4325-96DB-6D356C90C372}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8443F3-E702-4FCE-A464-EE7C82DABDED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{1C9E67DF-E904-44C8-9FA4-E3624DD188E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{1C9E67DF-E904-44C8-9FA4-E3624DD188E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset 1" sheetId="1" r:id="rId1"/>
     <sheet name="Dataset 2" sheetId="3" r:id="rId2"/>
     <sheet name="Dataset 3" sheetId="2" r:id="rId3"/>
+    <sheet name="Dataset 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="15">
   <si>
     <t>Variables</t>
   </si>
@@ -74,6 +75,9 @@
   </si>
   <si>
     <t>RANDOM CHANNEL ORDER, FULL INPUT (~60K), COLUMN VECTOR CONVOLUTIONAL LAYER … FOR FULL DATA SEE "EXPERIMENTS_NEW_COL_RANDOM.TXT"</t>
+  </si>
+  <si>
+    <t>RANDOM CHANNEL ORDER, FULL INPUT (~60K), 3x3 VECTOR CONVOLUTIONAL LAYER … FOR FULL DATA SEE "EXPERIMENTS_NEW_SQ_RANDOM.TXT"</t>
   </si>
 </sst>
 </file>
@@ -3101,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437F1BBE-8C5D-494A-8BA9-C03DEFB0B5B8}">
   <dimension ref="C2:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C1:U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4250,4 +4254,1159 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6D0285-309A-4774-839E-DF08B490B1A8}">
+  <dimension ref="D2:V39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:U39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="31">
+        <v>1</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
+      <c r="N3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="31">
+        <v>6</v>
+      </c>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="32"/>
+    </row>
+    <row r="4" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D4" s="9"/>
+      <c r="E4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="28"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="28"/>
+    </row>
+    <row r="5" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D5" s="9"/>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D6" s="9"/>
+      <c r="E6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="7">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="K6" s="7">
+        <v>5</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>5</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="U6" s="7">
+        <v>5</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="29">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
+      <c r="N7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="29">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="30"/>
+    </row>
+    <row r="8" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="31">
+        <v>2</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
+      <c r="N9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="31">
+        <v>7</v>
+      </c>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="32"/>
+    </row>
+    <row r="10" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D10" s="9"/>
+      <c r="E10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="28"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="28"/>
+    </row>
+    <row r="11" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D11" s="9"/>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D12" s="9"/>
+      <c r="E12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="7">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="K12" s="7">
+        <v>5</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>5</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="U12" s="7">
+        <v>5</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="29">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
+      <c r="N13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="29">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="30"/>
+    </row>
+    <row r="14" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="31">
+        <v>3</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
+      <c r="N15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="31">
+        <v>8</v>
+      </c>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="32"/>
+    </row>
+    <row r="16" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D16" s="9"/>
+      <c r="E16" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="28"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="28"/>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D17" s="9"/>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D18" s="9"/>
+      <c r="E18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G18" s="7">
+        <v>5</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="K18" s="7">
+        <v>5</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="9"/>
+      <c r="O18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>5</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="U18" s="7">
+        <v>5</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="29">
+        <v>1.14E-2</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
+      <c r="N19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="29">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29">
+        <v>2.35E-2</v>
+      </c>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="30"/>
+    </row>
+    <row r="20" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="31">
+        <v>4</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="32"/>
+      <c r="N21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="31">
+        <v>9</v>
+      </c>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="32"/>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D22" s="9"/>
+      <c r="E22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="28"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="28"/>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D23" s="9"/>
+      <c r="E23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="9"/>
+      <c r="O23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D24" s="9"/>
+      <c r="E24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G24" s="7">
+        <v>5</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="K24" s="7">
+        <v>5</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="9"/>
+      <c r="O24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>5</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="U24" s="7">
+        <v>5</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="29">
+        <v>1.18E-2</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="43">
+        <v>0</v>
+      </c>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="44"/>
+      <c r="N25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="29">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="30"/>
+    </row>
+    <row r="26" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="31">
+        <v>5</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
+      <c r="N27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="31">
+        <v>10</v>
+      </c>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="32"/>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D28" s="9"/>
+      <c r="E28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="28"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="28"/>
+    </row>
+    <row r="29" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D29" s="9"/>
+      <c r="E29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="9"/>
+      <c r="O29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V29" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D30" s="9"/>
+      <c r="E30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G30" s="7">
+        <v>5</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="K30" s="7">
+        <v>5</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="9"/>
+      <c r="O30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P30" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>5</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T30" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="U30" s="7">
+        <v>5</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="29">
+        <v>0</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="30"/>
+      <c r="N31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" s="29">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="30"/>
+    </row>
+    <row r="34" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D34" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+    </row>
+    <row r="35" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+    </row>
+    <row r="36" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+    </row>
+    <row r="37" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+    </row>
+    <row r="38" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+    </row>
+    <row r="39" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="D34:U39"/>
+    <mergeCell ref="E27:L27"/>
+    <mergeCell ref="O27:V27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="O21:V21"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="O15:V15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="O9:V9"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>